--- a/Excel-XLSX/UN-LCA.xlsx
+++ b/Excel-XLSX/UN-LCA.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>9jVB0b</t>
+    <t>NYhrO8</t>
   </si>
   <si>
     <t>1997</t>
@@ -117,7 +117,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>null</t>
+    <t>-</t>
   </si>
   <si>
     <t>2</t>
@@ -666,8 +666,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>32</v>
+      <c r="V2" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -734,8 +734,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>32</v>
+      <c r="V3" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -802,8 +802,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>32</v>
+      <c r="V4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -870,8 +870,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>32</v>
+      <c r="V5" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -938,8 +938,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>32</v>
+      <c r="V6" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-LCA.xlsx
+++ b/Excel-XLSX/UN-LCA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,43 @@
     <t>1</t>
   </si>
   <si>
-    <t>NYhrO8</t>
+    <t>8pGSmW</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>HAI</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>LCA</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>1997</t>
@@ -102,40 +138,19 @@
     <t>LKA</t>
   </si>
   <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>LCA</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>2009</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>2010</t>
   </si>
   <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>2011</t>
@@ -526,7 +541,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -628,25 +643,25 @@
         <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>32</v>
@@ -664,10 +679,10 @@
         <v>32</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -681,61 +696,61 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+      <c r="V3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -749,40 +764,40 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>32</v>
@@ -800,10 +815,10 @@
         <v>32</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -817,40 +832,40 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>32</v>
@@ -868,10 +883,10 @@
         <v>32</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -885,61 +900,129 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" s="1" t="s">
+      <c r="L7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>33</v>
+      <c r="O7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-LCA.xlsx
+++ b/Excel-XLSX/UN-LCA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -90,6 +90,60 @@
     <t>8pGSmW</t>
   </si>
   <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>LCA</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
     <t>2023</t>
   </si>
   <si>
@@ -105,58 +159,10 @@
     <t>HTI</t>
   </si>
   <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>LCA</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>LKA</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2013</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -541,7 +547,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -643,43 +649,43 @@
         <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="O2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>32</v>
@@ -696,58 +702,58 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>32</v>
@@ -764,58 +770,58 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>32</v>
@@ -832,41 +838,41 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="P5" s="2" t="s">
         <v>32</v>
       </c>
@@ -883,7 +889,7 @@
         <v>32</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>32</v>
@@ -900,58 +906,58 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="V6" s="2" t="s">
         <v>32</v>
@@ -968,60 +974,128 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="H7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="P7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V7" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-LCA.xlsx
+++ b/Excel-XLSX/UN-LCA.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>8pGSmW</t>
+    <t>78UYny</t>
   </si>
   <si>
     <t>1997</t>
